--- a/src/테이블 분석 결과 v1.xlsx
+++ b/src/테이블 분석 결과 v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kkk/git_repo/kkk/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FADDF9D-D94D-5841-92A4-7A033F7816F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E4414B-B5B0-8C43-A82A-C1DE90C49225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{BF1E84FF-F545-8B43-8AF6-FD5EFF22E007}"/>
+    <workbookView xWindow="-8240" yWindow="-23400" windowWidth="28800" windowHeight="17500" xr2:uid="{BF1E84FF-F545-8B43-8AF6-FD5EFF22E007}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="103">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -704,13 +704,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0_2021_20211030WOHT0_GetScoreBoardScroll.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_2021_20211030WOHT0_GetBoxScoreScroll.json</t>
-  </si>
-  <si>
     <t>*G_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -806,6 +799,14 @@
   </si>
   <si>
     <t>table3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetScoreBoardScroll.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetBoxScoreScroll.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -905,7 +906,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -933,14 +934,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1263,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A147134-2B94-7E44-B66A-0A16CB7AEB7F}">
   <dimension ref="B3:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1294,10 +1298,10 @@
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -1309,8 +1313,8 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="6" t="s">
         <v>58</v>
       </c>
@@ -1320,10 +1324,10 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>1</v>
@@ -1331,8 +1335,8 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="6" t="s">
         <v>59</v>
       </c>
@@ -1344,8 +1348,8 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="6" t="s">
         <v>60</v>
       </c>
@@ -1355,8 +1359,8 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="6" t="s">
         <v>61</v>
       </c>
@@ -1366,8 +1370,8 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="6" t="s">
         <v>62</v>
       </c>
@@ -1377,8 +1381,8 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="6" t="s">
         <v>63</v>
       </c>
@@ -1388,8 +1392,8 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="6" t="s">
         <v>64</v>
       </c>
@@ -1399,8 +1403,8 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="6" t="s">
         <v>65</v>
       </c>
@@ -1410,8 +1414,8 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="6" t="s">
         <v>66</v>
       </c>
@@ -1421,8 +1425,8 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="6" t="s">
         <v>67</v>
       </c>
@@ -1432,8 +1436,8 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="6" t="s">
         <v>68</v>
       </c>
@@ -1443,8 +1447,8 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="6" t="s">
         <v>69</v>
       </c>
@@ -1454,8 +1458,8 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="6" t="s">
         <v>70</v>
       </c>
@@ -1465,8 +1469,8 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="6" t="s">
         <v>71</v>
       </c>
@@ -1476,8 +1480,8 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="6" t="s">
         <v>72</v>
       </c>
@@ -1487,8 +1491,8 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="6" t="s">
         <v>73</v>
       </c>
@@ -1498,8 +1502,8 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="6" t="s">
         <v>74</v>
       </c>
@@ -1509,8 +1513,8 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="6" t="s">
         <v>75</v>
       </c>
@@ -1520,8 +1524,8 @@
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="6" t="s">
         <v>76</v>
       </c>
@@ -1531,8 +1535,8 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="6" t="s">
         <v>77</v>
       </c>
@@ -1542,8 +1546,8 @@
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="6" t="s">
         <v>78</v>
       </c>
@@ -1553,8 +1557,8 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="6" t="s">
         <v>79</v>
       </c>
@@ -1564,8 +1568,8 @@
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
       <c r="D28" s="6" t="s">
         <v>80</v>
       </c>
@@ -1575,8 +1579,8 @@
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="6" t="s">
         <v>81</v>
       </c>
@@ -1586,35 +1590,41 @@
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="6" t="s">
         <v>82</v>
       </c>
@@ -1624,8 +1634,8 @@
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
       <c r="D34" s="6" t="s">
         <v>83</v>
       </c>
@@ -1635,8 +1645,8 @@
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
       <c r="D35" s="6" t="s">
         <v>84</v>
       </c>
@@ -1646,8 +1656,8 @@
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
       <c r="D36" s="6" t="s">
         <v>85</v>
       </c>
@@ -1657,9 +1667,9 @@
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5" t="s">
-        <v>99</v>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>23</v>
@@ -1670,8 +1680,8 @@
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
       <c r="D38" s="6" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1691,8 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="6" t="s">
         <v>36</v>
       </c>
@@ -1692,8 +1702,8 @@
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
       <c r="D40" s="6" t="s">
         <v>37</v>
       </c>
@@ -1703,10 +1713,10 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
       <c r="D41" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>1</v>
@@ -1714,8 +1724,8 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
       <c r="D42" s="7" t="s">
         <v>38</v>
       </c>
@@ -1725,8 +1735,8 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
       <c r="D43" s="7" t="s">
         <v>25</v>
       </c>
@@ -1736,8 +1746,8 @@
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
       <c r="D44" s="7" t="s">
         <v>26</v>
       </c>
@@ -1747,8 +1757,8 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
       <c r="D45" s="7" t="s">
         <v>27</v>
       </c>
@@ -1758,8 +1768,8 @@
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
       <c r="D46" s="7" t="s">
         <v>28</v>
       </c>
@@ -1769,8 +1779,8 @@
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
       <c r="D47" s="7" t="s">
         <v>29</v>
       </c>
@@ -1780,12 +1790,12 @@
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="5"/>
-      <c r="C48" s="9" t="s">
+      <c r="B48" s="12"/>
+      <c r="C48" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>1</v>
@@ -1793,8 +1803,8 @@
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
       <c r="D49" s="6" t="s">
         <v>39</v>
       </c>
@@ -1804,8 +1814,8 @@
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
       <c r="D50" s="6" t="s">
         <v>40</v>
       </c>
@@ -1815,8 +1825,8 @@
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
       <c r="D51" s="6" t="s">
         <v>41</v>
       </c>
@@ -1826,8 +1836,8 @@
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
       <c r="D52" s="6" t="s">
         <v>42</v>
       </c>
@@ -1837,8 +1847,8 @@
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
       <c r="D53" s="6" t="s">
         <v>43</v>
       </c>
@@ -1848,8 +1858,8 @@
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
       <c r="D54" s="6" t="s">
         <v>44</v>
       </c>
@@ -1859,8 +1869,8 @@
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="6" t="s">
         <v>45</v>
       </c>
@@ -1870,8 +1880,8 @@
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
       <c r="D56" s="6" t="s">
         <v>46</v>
       </c>
@@ -1881,8 +1891,8 @@
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
       <c r="D57" s="6" t="s">
         <v>47</v>
       </c>
@@ -1892,8 +1902,8 @@
       <c r="F57" s="4"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
       <c r="D58" s="6" t="s">
         <v>48</v>
       </c>
@@ -1903,8 +1913,8 @@
       <c r="F58" s="4"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
       <c r="D59" s="6" t="s">
         <v>49</v>
       </c>
@@ -1914,8 +1924,8 @@
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
       <c r="D60" s="6" t="s">
         <v>50</v>
       </c>
@@ -1925,12 +1935,12 @@
       <c r="F60" s="4"/>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="5"/>
-      <c r="C61" s="9" t="s">
+      <c r="B61" s="12"/>
+      <c r="C61" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>1</v>
@@ -1938,8 +1948,8 @@
       <c r="F61" s="4"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="5"/>
-      <c r="C62" s="9"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="11"/>
       <c r="D62" s="6" t="s">
         <v>53</v>
       </c>
@@ -1949,8 +1959,8 @@
       <c r="F62" s="4"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="5"/>
-      <c r="C63" s="9"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="11"/>
       <c r="D63" s="6" t="s">
         <v>54</v>
       </c>
@@ -1960,8 +1970,8 @@
       <c r="F63" s="4"/>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="5"/>
-      <c r="C64" s="9"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="11"/>
       <c r="D64" s="6" t="s">
         <v>55</v>
       </c>
@@ -1971,8 +1981,8 @@
       <c r="F64" s="4"/>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="5"/>
-      <c r="C65" s="9"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="11"/>
       <c r="D65" s="6" t="s">
         <v>56</v>
       </c>
@@ -1982,11 +1992,11 @@
       <c r="F65" s="4"/>
     </row>
     <row r="66" spans="2:6" ht="20">
-      <c r="B66" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>97</v>
+      <c r="B66" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>6</v>
@@ -1999,8 +2009,8 @@
       </c>
     </row>
     <row r="67" spans="2:6" ht="20">
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
       <c r="D67" s="4" t="s">
         <v>7</v>
       </c>
@@ -2012,8 +2022,8 @@
       </c>
     </row>
     <row r="68" spans="2:6" ht="20">
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
       <c r="D68" s="4" t="s">
         <v>8</v>
       </c>
@@ -2025,8 +2035,8 @@
       </c>
     </row>
     <row r="69" spans="2:6" ht="20">
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
       <c r="D69" s="4" t="s">
         <v>9</v>
       </c>
@@ -2038,8 +2048,8 @@
       </c>
     </row>
     <row r="70" spans="2:6" ht="20">
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
       <c r="D70" s="4" t="s">
         <v>10</v>
       </c>
@@ -2051,8 +2061,8 @@
       </c>
     </row>
     <row r="71" spans="2:6" ht="20">
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
       <c r="D71" s="4" t="s">
         <v>11</v>
       </c>
@@ -2064,21 +2074,21 @@
       </c>
     </row>
     <row r="72" spans="2:6" ht="20">
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
       <c r="D72" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F72" s="10" t="s">
+      <c r="F72" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="73" spans="2:6" ht="20">
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
       <c r="D73" s="4" t="s">
         <v>13</v>
       </c>
@@ -2090,8 +2100,8 @@
       </c>
     </row>
     <row r="74" spans="2:6" ht="20">
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
       <c r="D74" s="4" t="s">
         <v>14</v>
       </c>
@@ -2103,8 +2113,8 @@
       </c>
     </row>
     <row r="75" spans="2:6" ht="20">
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
       <c r="D75" s="4" t="s">
         <v>15</v>
       </c>
@@ -2116,8 +2126,8 @@
       </c>
     </row>
     <row r="76" spans="2:6" ht="20">
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
       <c r="D76" s="4" t="s">
         <v>16</v>
       </c>
@@ -2129,8 +2139,8 @@
       </c>
     </row>
     <row r="77" spans="2:6" ht="20">
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
       <c r="D77" s="4" t="s">
         <v>17</v>
       </c>
@@ -2142,8 +2152,8 @@
       </c>
     </row>
     <row r="78" spans="2:6" ht="20">
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
       <c r="D78" s="4" t="s">
         <v>18</v>
       </c>
@@ -2155,8 +2165,8 @@
       </c>
     </row>
     <row r="79" spans="2:6" ht="20">
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
       <c r="D79" s="4" t="s">
         <v>19</v>
       </c>
@@ -2168,8 +2178,8 @@
       </c>
     </row>
     <row r="80" spans="2:6" ht="20">
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
       <c r="D80" s="4" t="s">
         <v>20</v>
       </c>
@@ -2181,8 +2191,8 @@
       </c>
     </row>
     <row r="81" spans="2:6" ht="20">
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
       <c r="D81" s="4" t="s">
         <v>21</v>
       </c>
@@ -2194,8 +2204,8 @@
       </c>
     </row>
     <row r="82" spans="2:6" ht="20">
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
       <c r="D82" s="4" t="s">
         <v>22</v>
       </c>
@@ -2207,10 +2217,10 @@
       </c>
     </row>
     <row r="83" spans="2:6" ht="20">
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
       <c r="D83" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>1</v>
@@ -2220,10 +2230,10 @@
       </c>
     </row>
     <row r="84" spans="2:6" ht="20">
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
       <c r="D84" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>1</v>
@@ -2233,36 +2243,36 @@
       </c>
     </row>
     <row r="85" spans="2:6" ht="38">
-      <c r="B85" s="5"/>
-      <c r="C85" s="11" t="s">
-        <v>96</v>
+      <c r="B85" s="12"/>
+      <c r="C85" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="5"/>
+      <c r="B86" s="12"/>
       <c r="C86" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B4:B65"/>
+    <mergeCell ref="B66:B86"/>
     <mergeCell ref="C66:C84"/>
     <mergeCell ref="C37:C47"/>
     <mergeCell ref="C48:C60"/>
     <mergeCell ref="C61:C65"/>
     <mergeCell ref="C4:C36"/>
-    <mergeCell ref="B4:B65"/>
-    <mergeCell ref="B66:B86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
